--- a/Atividade 2 - Lista de variáveis_B.xlsx
+++ b/Atividade 2 - Lista de variáveis_B.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="15150" windowHeight="7995" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="15150" windowHeight="7995" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="View" sheetId="7" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="488">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="773" uniqueCount="598">
   <si>
     <t>Class</t>
   </si>
@@ -990,39 +990,12 @@
     <t>Livraria</t>
   </si>
   <si>
-    <t>Library</t>
-  </si>
-  <si>
     <t>cnpj</t>
   </si>
   <si>
-    <t>identificationNumber // cnpjLibrary</t>
-  </si>
-  <si>
-    <t>// Receives the identification number of the library</t>
-  </si>
-  <si>
-    <t>libraryName</t>
-  </si>
-  <si>
-    <t>// Receives the name of the library</t>
-  </si>
-  <si>
-    <t>// Receives the telephone of the library</t>
-  </si>
-  <si>
     <t>endereco</t>
   </si>
   <si>
-    <t>libraryAddress</t>
-  </si>
-  <si>
-    <t>// Receives the address of the library</t>
-  </si>
-  <si>
-    <t>libraryTelephone</t>
-  </si>
-  <si>
     <t>Tipo_pagamento</t>
   </si>
   <si>
@@ -1483,6 +1456,363 @@
   </si>
   <si>
     <t>// Service Type class's instance to access the class</t>
+  </si>
+  <si>
+    <t>BookStore</t>
+  </si>
+  <si>
+    <t>// Receives the identification number of the bookstore</t>
+  </si>
+  <si>
+    <t>bookstoreName</t>
+  </si>
+  <si>
+    <t>// Receives the name of the bookstore</t>
+  </si>
+  <si>
+    <t>bookstoreAddress</t>
+  </si>
+  <si>
+    <t>// Receives the address of the bookstore</t>
+  </si>
+  <si>
+    <t>bookstoreTelephone</t>
+  </si>
+  <si>
+    <t>// Receives the telephone of the bookstore</t>
+  </si>
+  <si>
+    <t>identificationNumber // cnpjBookstore</t>
+  </si>
+  <si>
+    <t>Livro</t>
+  </si>
+  <si>
+    <t>Book</t>
+  </si>
+  <si>
+    <t>ISBN</t>
+  </si>
+  <si>
+    <t>Titulo</t>
+  </si>
+  <si>
+    <t>Tema</t>
+  </si>
+  <si>
+    <t>Preco</t>
+  </si>
+  <si>
+    <t>Autor</t>
+  </si>
+  <si>
+    <t>Editora</t>
+  </si>
+  <si>
+    <t>Ano_publicacao</t>
+  </si>
+  <si>
+    <t>Edicao</t>
+  </si>
+  <si>
+    <t>livro_recomendacao</t>
+  </si>
+  <si>
+    <t>input</t>
+  </si>
+  <si>
+    <t>lerString</t>
+  </si>
+  <si>
+    <t>Mostrar_catalogo</t>
+  </si>
+  <si>
+    <t>showCatalog</t>
+  </si>
+  <si>
+    <t>listISBN</t>
+  </si>
+  <si>
+    <t>listTitle</t>
+  </si>
+  <si>
+    <t>listTheme</t>
+  </si>
+  <si>
+    <t>listPrice</t>
+  </si>
+  <si>
+    <t>listAuthor</t>
+  </si>
+  <si>
+    <t>listPublishingHouse</t>
+  </si>
+  <si>
+    <t>listYearPublication</t>
+  </si>
+  <si>
+    <t>listEdition</t>
+  </si>
+  <si>
+    <t>listBookRecommendation</t>
+  </si>
+  <si>
+    <t>inputString</t>
+  </si>
+  <si>
+    <t>// Receives a list of ISBN from books</t>
+  </si>
+  <si>
+    <t>// Receives a list of titles from books</t>
+  </si>
+  <si>
+    <t>// Receives a list of thems from books</t>
+  </si>
+  <si>
+    <t>// Receives a list of prices from books</t>
+  </si>
+  <si>
+    <t>// Receives a list of authors from books</t>
+  </si>
+  <si>
+    <t>// Receives a list of publishing houses from books</t>
+  </si>
+  <si>
+    <t>// Receives a list of years of publication from books</t>
+  </si>
+  <si>
+    <t>// Receives a list of edition from books</t>
+  </si>
+  <si>
+    <t>// Receives a list of books recommendation from books</t>
+  </si>
+  <si>
+    <t>// Receives a instance of Scanner class to receive the data from the user</t>
+  </si>
+  <si>
+    <t>// Receives a instance of Scanner class to receive the data in text from the user</t>
+  </si>
+  <si>
+    <t>Consultar_livro</t>
+  </si>
+  <si>
+    <t>queryBook</t>
+  </si>
+  <si>
+    <t>livro_procurar</t>
+  </si>
+  <si>
+    <t>// Receives the ISBN or the title of the book researched by user</t>
+  </si>
+  <si>
+    <t>researchedBookByUser</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>indexOfTheBook</t>
+  </si>
+  <si>
+    <t>// Receives the index of the book researched by user</t>
+  </si>
+  <si>
+    <t>opcao</t>
+  </si>
+  <si>
+    <t>option</t>
+  </si>
+  <si>
+    <t>// Receives the option from the user about the buying of the book</t>
+  </si>
+  <si>
+    <t>cliente_log</t>
+  </si>
+  <si>
+    <t>loginClient</t>
+  </si>
+  <si>
+    <t>// Receives the login of the client</t>
+  </si>
+  <si>
+    <t>quant</t>
+  </si>
+  <si>
+    <t>bookQuantity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">// Receives the quantity of books </t>
+  </si>
+  <si>
+    <t>indice_Clogado</t>
+  </si>
+  <si>
+    <t>indexOfTheClient</t>
+  </si>
+  <si>
+    <t>// Receives the index of the client</t>
+  </si>
+  <si>
+    <t>recomenda</t>
+  </si>
+  <si>
+    <t>optionRecommendation</t>
+  </si>
+  <si>
+    <t>// Receives the option from the user about the recommendation of the book</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>verifyAddRecommendation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">// Receives the sucess of addition of the book in the recommendation list </t>
+  </si>
+  <si>
+    <t>Livraria_ABC</t>
+  </si>
+  <si>
+    <t>ABCBookStore</t>
+  </si>
+  <si>
+    <t>acessoAtual</t>
+  </si>
+  <si>
+    <t>currentAccess</t>
+  </si>
+  <si>
+    <t>// Receives the current condition of the system about an access</t>
+  </si>
+  <si>
+    <t>clienteAtual</t>
+  </si>
+  <si>
+    <t>currentClient</t>
+  </si>
+  <si>
+    <t>// Receives the current client logged into the system</t>
+  </si>
+  <si>
+    <t>nomeClienteAtual</t>
+  </si>
+  <si>
+    <t>currentClientName</t>
+  </si>
+  <si>
+    <t>// Receives the current client's name logged into the system</t>
+  </si>
+  <si>
+    <t>desconto</t>
+  </si>
+  <si>
+    <t>discount</t>
+  </si>
+  <si>
+    <t>// Receives the value of the discount</t>
+  </si>
+  <si>
+    <t>// Receives the code of the buying</t>
+  </si>
+  <si>
+    <t>COD_compra</t>
+  </si>
+  <si>
+    <t>buyingCode</t>
+  </si>
+  <si>
+    <t>end_compra</t>
+  </si>
+  <si>
+    <t>deliveryAddress</t>
+  </si>
+  <si>
+    <t>// Receives the delivery address of the book</t>
+  </si>
+  <si>
+    <t>tipo_pag</t>
+  </si>
+  <si>
+    <t>// Receives the type of the payment</t>
+  </si>
+  <si>
+    <t>Exit</t>
+  </si>
+  <si>
+    <t>exit</t>
+  </si>
+  <si>
+    <t>Menu</t>
+  </si>
+  <si>
+    <t>// Receives the option from the user about what to do in the system</t>
+  </si>
+  <si>
+    <t>livro_desejado</t>
+  </si>
+  <si>
+    <t>quantidade_livros</t>
+  </si>
+  <si>
+    <t>cod_compra</t>
+  </si>
+  <si>
+    <t>// Receives the code of the buying - used like a global variable</t>
+  </si>
+  <si>
+    <t>cliente</t>
+  </si>
+  <si>
+    <t>client</t>
+  </si>
+  <si>
+    <t>// Client class's instance to access the class</t>
+  </si>
+  <si>
+    <t>livro</t>
+  </si>
+  <si>
+    <t>book</t>
+  </si>
+  <si>
+    <t>// Book class's instance to access the class</t>
+  </si>
+  <si>
+    <t>livraria</t>
+  </si>
+  <si>
+    <t>bookstore</t>
+  </si>
+  <si>
+    <t>// Bookstore class's instance to access the class</t>
+  </si>
+  <si>
+    <t>cupom</t>
+  </si>
+  <si>
+    <t>coupon</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t2</t>
+  </si>
+  <si>
+    <t>// PaymentType class's instance to access the class</t>
+  </si>
+  <si>
+    <t>// Coupoun class's instance to access the class</t>
+  </si>
+  <si>
+    <t>paymentType1</t>
+  </si>
+  <si>
+    <t>paymentType2</t>
+  </si>
+  <si>
+    <t>showMenu</t>
   </si>
 </sst>
 </file>
@@ -1903,7 +2233,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1991,68 +2321,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2081,10 +2358,75 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2427,10 +2769,10 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="40" t="s">
         <v>145</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="40" t="s">
         <v>151</v>
       </c>
       <c r="C2" s="4"/>
@@ -2441,13 +2783,13 @@
       <c r="F2" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="G2" s="38" t="s">
-        <v>456</v>
+      <c r="G2" s="40" t="s">
+        <v>447</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="38"/>
-      <c r="B3" s="38"/>
+      <c r="A3" s="40"/>
+      <c r="B3" s="40"/>
       <c r="C3" s="35"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4" t="s">
@@ -2456,11 +2798,11 @@
       <c r="F3" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="G3" s="38"/>
+      <c r="G3" s="40"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="38"/>
-      <c r="B4" s="38"/>
+      <c r="A4" s="40"/>
+      <c r="B4" s="40"/>
       <c r="C4" s="35"/>
       <c r="D4" s="35"/>
       <c r="E4" s="4" t="s">
@@ -2469,11 +2811,11 @@
       <c r="F4" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="G4" s="38"/>
+      <c r="G4" s="40"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="38"/>
-      <c r="B5" s="38"/>
+      <c r="A5" s="40"/>
+      <c r="B5" s="40"/>
       <c r="C5" s="35"/>
       <c r="D5" s="35"/>
       <c r="E5" s="4" t="s">
@@ -2482,11 +2824,11 @@
       <c r="F5" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="G5" s="38"/>
+      <c r="G5" s="40"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="38"/>
-      <c r="B6" s="38"/>
+      <c r="A6" s="40"/>
+      <c r="B6" s="40"/>
       <c r="C6" s="35"/>
       <c r="D6" s="35"/>
       <c r="E6" s="4" t="s">
@@ -2496,42 +2838,42 @@
         <v>66</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="38"/>
-      <c r="B7" s="38"/>
+      <c r="A7" s="40"/>
+      <c r="B7" s="40"/>
       <c r="C7" s="35"/>
       <c r="D7" s="35"/>
       <c r="E7" s="4" t="s">
         <v>157</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="38"/>
-      <c r="B8" s="38"/>
+      <c r="A8" s="40"/>
+      <c r="B8" s="40"/>
       <c r="C8" s="35"/>
       <c r="D8" s="35"/>
       <c r="E8" s="4" t="s">
         <v>156</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="38"/>
-      <c r="B9" s="38"/>
+      <c r="A9" s="40"/>
+      <c r="B9" s="40"/>
       <c r="C9" s="35"/>
       <c r="D9" s="35"/>
       <c r="E9" s="4" t="s">
@@ -2545,8 +2887,8 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="38"/>
-      <c r="B10" s="38"/>
+      <c r="A10" s="40"/>
+      <c r="B10" s="40"/>
       <c r="C10" s="35"/>
       <c r="D10" s="35"/>
       <c r="E10" s="4" t="s">
@@ -2556,16 +2898,16 @@
         <v>159</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="38"/>
-      <c r="B11" s="38"/>
-      <c r="C11" s="38" t="s">
+      <c r="A11" s="40"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="40" t="s">
         <v>164</v>
       </c>
-      <c r="D11" s="38" t="s">
+      <c r="D11" s="40" t="s">
         <v>165</v>
       </c>
       <c r="E11" s="30" t="s">
@@ -2579,10 +2921,10 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="38"/>
-      <c r="B12" s="38"/>
-      <c r="C12" s="38"/>
-      <c r="D12" s="38"/>
+      <c r="A12" s="40"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="40"/>
       <c r="E12" s="22" t="s">
         <v>169</v>
       </c>
@@ -2590,14 +2932,14 @@
         <v>170</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="38"/>
-      <c r="B13" s="38"/>
-      <c r="C13" s="38"/>
-      <c r="D13" s="38"/>
+      <c r="A13" s="40"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="40"/>
       <c r="E13" s="30" t="s">
         <v>172</v>
       </c>
@@ -2609,10 +2951,10 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="38"/>
-      <c r="B14" s="38"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="38"/>
+      <c r="A14" s="40"/>
+      <c r="B14" s="40"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="40"/>
       <c r="E14" s="22" t="s">
         <v>171</v>
       </c>
@@ -2620,14 +2962,14 @@
         <v>175</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="38"/>
-      <c r="B15" s="38"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="38"/>
+      <c r="A15" s="40"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="40"/>
       <c r="E15" s="22" t="s">
         <v>177</v>
       </c>
@@ -2639,8 +2981,8 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="38"/>
-      <c r="B16" s="38"/>
+      <c r="A16" s="40"/>
+      <c r="B16" s="40"/>
       <c r="C16" s="35" t="s">
         <v>179</v>
       </c>
@@ -2652,8 +2994,8 @@
       <c r="G16" s="4"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="38"/>
-      <c r="B17" s="38"/>
+      <c r="A17" s="40"/>
+      <c r="B17" s="40"/>
       <c r="C17" s="35" t="s">
         <v>180</v>
       </c>
@@ -2665,8 +3007,8 @@
       <c r="G17" s="4"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="38"/>
-      <c r="B18" s="38"/>
+      <c r="A18" s="40"/>
+      <c r="B18" s="40"/>
       <c r="C18" s="35" t="s">
         <v>181</v>
       </c>
@@ -2680,12 +3022,12 @@
         <v>248</v>
       </c>
       <c r="G18" s="30" t="s">
-        <v>459</v>
+        <v>450</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="38"/>
-      <c r="B19" s="38"/>
+      <c r="A19" s="40"/>
+      <c r="B19" s="40"/>
       <c r="C19" s="35"/>
       <c r="D19" s="35"/>
       <c r="E19" s="22" t="s">
@@ -2699,23 +3041,23 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="38"/>
-      <c r="B20" s="38"/>
+      <c r="A20" s="40"/>
+      <c r="B20" s="40"/>
       <c r="C20" s="35"/>
       <c r="D20" s="35"/>
       <c r="E20" s="22" t="s">
         <v>94</v>
       </c>
       <c r="F20" s="23" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="G20" s="23" t="s">
-        <v>460</v>
+        <v>451</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="38"/>
-      <c r="B21" s="38"/>
+      <c r="A21" s="40"/>
+      <c r="B21" s="40"/>
       <c r="C21" s="35"/>
       <c r="D21" s="35"/>
       <c r="E21" s="22" t="s">
@@ -2725,12 +3067,12 @@
         <v>187</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="38"/>
-      <c r="B22" s="38"/>
+      <c r="A22" s="40"/>
+      <c r="B22" s="40"/>
       <c r="C22" s="35"/>
       <c r="D22" s="35"/>
       <c r="E22" s="22" t="s">
@@ -2744,42 +3086,42 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="38"/>
-      <c r="B23" s="38"/>
+      <c r="A23" s="40"/>
+      <c r="B23" s="40"/>
       <c r="C23" s="35"/>
       <c r="D23" s="35"/>
       <c r="E23" s="22" t="s">
         <v>190</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="G23" s="4" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="38"/>
-      <c r="B24" s="38"/>
+      <c r="A24" s="40"/>
+      <c r="B24" s="40"/>
       <c r="C24" s="35"/>
       <c r="D24" s="35"/>
       <c r="E24" s="22" t="s">
         <v>191</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
       <c r="G24" s="4" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="38"/>
-      <c r="B25" s="38"/>
-      <c r="C25" s="38" t="s">
+      <c r="A25" s="40"/>
+      <c r="B25" s="40"/>
+      <c r="C25" s="40" t="s">
         <v>192</v>
       </c>
-      <c r="D25" s="38" t="s">
+      <c r="D25" s="40" t="s">
         <v>101</v>
       </c>
       <c r="E25" s="22" t="s">
@@ -2789,120 +3131,120 @@
         <v>66</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>462</v>
+        <v>453</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="38"/>
-      <c r="B26" s="38"/>
-      <c r="C26" s="38"/>
-      <c r="D26" s="38"/>
+      <c r="A26" s="40"/>
+      <c r="B26" s="40"/>
+      <c r="C26" s="40"/>
+      <c r="D26" s="40"/>
       <c r="E26" s="22" t="s">
         <v>195</v>
       </c>
       <c r="F26" s="22" t="s">
         <v>202</v>
       </c>
-      <c r="G26" s="38" t="s">
+      <c r="G26" s="40" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="38"/>
-      <c r="B27" s="38"/>
-      <c r="C27" s="38"/>
-      <c r="D27" s="38"/>
+      <c r="A27" s="40"/>
+      <c r="B27" s="40"/>
+      <c r="C27" s="40"/>
+      <c r="D27" s="40"/>
       <c r="E27" s="23" t="s">
         <v>196</v>
       </c>
       <c r="F27" s="23" t="s">
         <v>203</v>
       </c>
-      <c r="G27" s="38"/>
+      <c r="G27" s="40"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="38"/>
-      <c r="B28" s="38"/>
-      <c r="C28" s="38"/>
-      <c r="D28" s="38"/>
+      <c r="A28" s="40"/>
+      <c r="B28" s="40"/>
+      <c r="C28" s="40"/>
+      <c r="D28" s="40"/>
       <c r="E28" s="23" t="s">
         <v>197</v>
       </c>
       <c r="F28" s="23" t="s">
         <v>204</v>
       </c>
-      <c r="G28" s="38"/>
+      <c r="G28" s="40"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="38"/>
-      <c r="B29" s="38"/>
-      <c r="C29" s="38"/>
-      <c r="D29" s="38"/>
+      <c r="A29" s="40"/>
+      <c r="B29" s="40"/>
+      <c r="C29" s="40"/>
+      <c r="D29" s="40"/>
       <c r="E29" s="23" t="s">
         <v>198</v>
       </c>
       <c r="F29" s="23" t="s">
         <v>205</v>
       </c>
-      <c r="G29" s="38"/>
+      <c r="G29" s="40"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="38"/>
-      <c r="B30" s="38"/>
-      <c r="C30" s="38"/>
-      <c r="D30" s="38"/>
+      <c r="A30" s="40"/>
+      <c r="B30" s="40"/>
+      <c r="C30" s="40"/>
+      <c r="D30" s="40"/>
       <c r="E30" s="23" t="s">
         <v>199</v>
       </c>
       <c r="F30" s="23" t="s">
         <v>206</v>
       </c>
-      <c r="G30" s="38"/>
+      <c r="G30" s="40"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="38"/>
-      <c r="B31" s="38"/>
-      <c r="C31" s="38"/>
-      <c r="D31" s="38"/>
+      <c r="A31" s="40"/>
+      <c r="B31" s="40"/>
+      <c r="C31" s="40"/>
+      <c r="D31" s="40"/>
       <c r="E31" s="23" t="s">
         <v>200</v>
       </c>
       <c r="F31" s="23" t="s">
         <v>207</v>
       </c>
-      <c r="G31" s="38"/>
+      <c r="G31" s="40"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="38"/>
-      <c r="B32" s="38"/>
-      <c r="C32" s="38"/>
-      <c r="D32" s="38"/>
+      <c r="A32" s="40"/>
+      <c r="B32" s="40"/>
+      <c r="C32" s="40"/>
+      <c r="D32" s="40"/>
       <c r="E32" s="23" t="s">
         <v>201</v>
       </c>
       <c r="F32" s="23" t="s">
         <v>208</v>
       </c>
-      <c r="G32" s="38"/>
+      <c r="G32" s="40"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="38"/>
-      <c r="B33" s="38"/>
-      <c r="C33" s="38"/>
-      <c r="D33" s="38"/>
+      <c r="A33" s="40"/>
+      <c r="B33" s="40"/>
+      <c r="C33" s="40"/>
+      <c r="D33" s="40"/>
       <c r="E33" s="23" t="s">
         <v>194</v>
       </c>
       <c r="F33" s="23" t="s">
         <v>209</v>
       </c>
-      <c r="G33" s="38"/>
+      <c r="G33" s="40"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="38"/>
-      <c r="B34" s="38"/>
-      <c r="C34" s="38"/>
-      <c r="D34" s="38"/>
+      <c r="A34" s="40"/>
+      <c r="B34" s="40"/>
+      <c r="C34" s="40"/>
+      <c r="D34" s="40"/>
       <c r="E34" s="22" t="s">
         <v>211</v>
       </c>
@@ -2914,25 +3256,25 @@
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="38"/>
-      <c r="B35" s="38"/>
-      <c r="C35" s="38"/>
-      <c r="D35" s="38"/>
+      <c r="A35" s="40"/>
+      <c r="B35" s="40"/>
+      <c r="C35" s="40"/>
+      <c r="D35" s="40"/>
       <c r="E35" s="22" t="s">
         <v>212</v>
       </c>
       <c r="F35" s="22" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="G35" s="4" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="38"/>
-      <c r="B36" s="38"/>
-      <c r="C36" s="38"/>
-      <c r="D36" s="38"/>
+      <c r="A36" s="40"/>
+      <c r="B36" s="40"/>
+      <c r="C36" s="40"/>
+      <c r="D36" s="40"/>
       <c r="E36" s="22" t="s">
         <v>34</v>
       </c>
@@ -2940,14 +3282,14 @@
         <v>88</v>
       </c>
       <c r="G36" s="30" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="38"/>
-      <c r="B37" s="38"/>
-      <c r="C37" s="38"/>
-      <c r="D37" s="38"/>
+      <c r="A37" s="40"/>
+      <c r="B37" s="40"/>
+      <c r="C37" s="40"/>
+      <c r="D37" s="40"/>
       <c r="E37" s="22" t="s">
         <v>214</v>
       </c>
@@ -2955,14 +3297,14 @@
         <v>215</v>
       </c>
       <c r="G37" s="30" t="s">
-        <v>463</v>
+        <v>454</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="38"/>
-      <c r="B38" s="38"/>
-      <c r="C38" s="38"/>
-      <c r="D38" s="38"/>
+      <c r="A38" s="40"/>
+      <c r="B38" s="40"/>
+      <c r="C38" s="40"/>
+      <c r="D38" s="40"/>
       <c r="E38" s="22" t="s">
         <v>216</v>
       </c>
@@ -2974,25 +3316,25 @@
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="38"/>
-      <c r="B39" s="38"/>
-      <c r="C39" s="38"/>
-      <c r="D39" s="38"/>
+      <c r="A39" s="40"/>
+      <c r="B39" s="40"/>
+      <c r="C39" s="40"/>
+      <c r="D39" s="40"/>
       <c r="E39" s="22" t="s">
         <v>217</v>
       </c>
       <c r="F39" s="22" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="G39" s="30" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="38"/>
-      <c r="B40" s="38"/>
-      <c r="C40" s="38"/>
-      <c r="D40" s="38"/>
+      <c r="A40" s="40"/>
+      <c r="B40" s="40"/>
+      <c r="C40" s="40"/>
+      <c r="D40" s="40"/>
       <c r="E40" s="22" t="s">
         <v>221</v>
       </c>
@@ -3004,10 +3346,10 @@
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="38"/>
-      <c r="B41" s="38"/>
-      <c r="C41" s="38"/>
-      <c r="D41" s="38"/>
+      <c r="A41" s="40"/>
+      <c r="B41" s="40"/>
+      <c r="C41" s="40"/>
+      <c r="D41" s="40"/>
       <c r="E41" s="22" t="s">
         <v>223</v>
       </c>
@@ -3019,10 +3361,10 @@
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="38"/>
-      <c r="B42" s="38"/>
-      <c r="C42" s="38"/>
-      <c r="D42" s="38"/>
+      <c r="A42" s="40"/>
+      <c r="B42" s="40"/>
+      <c r="C42" s="40"/>
+      <c r="D42" s="40"/>
       <c r="E42" s="22" t="s">
         <v>227</v>
       </c>
@@ -3032,8 +3374,8 @@
       <c r="G42" s="39"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="38"/>
-      <c r="B43" s="38"/>
+      <c r="A43" s="40"/>
+      <c r="B43" s="40"/>
       <c r="C43" s="35"/>
       <c r="D43" s="35"/>
       <c r="E43" s="22" t="s">
@@ -3047,8 +3389,8 @@
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="38"/>
-      <c r="B44" s="38"/>
+      <c r="A44" s="40"/>
+      <c r="B44" s="40"/>
       <c r="C44" s="35" t="s">
         <v>234</v>
       </c>
@@ -3066,10 +3408,10 @@
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="64" t="s">
+      <c r="A45" s="47" t="s">
         <v>245</v>
       </c>
-      <c r="B45" s="61" t="s">
+      <c r="B45" s="44" t="s">
         <v>246</v>
       </c>
       <c r="C45" s="35"/>
@@ -3081,12 +3423,12 @@
         <v>66</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="65"/>
-      <c r="B46" s="62"/>
+      <c r="A46" s="48"/>
+      <c r="B46" s="45"/>
       <c r="C46" s="35"/>
       <c r="D46" s="35"/>
       <c r="E46" s="22" t="s">
@@ -3100,8 +3442,8 @@
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="65"/>
-      <c r="B47" s="62"/>
+      <c r="A47" s="48"/>
+      <c r="B47" s="45"/>
       <c r="C47" s="35" t="s">
         <v>181</v>
       </c>
@@ -3115,12 +3457,12 @@
         <v>249</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="65"/>
-      <c r="B48" s="62"/>
+      <c r="A48" s="48"/>
+      <c r="B48" s="45"/>
       <c r="C48" s="35"/>
       <c r="D48" s="35"/>
       <c r="E48" s="22" t="s">
@@ -3130,12 +3472,12 @@
         <v>251</v>
       </c>
       <c r="G48" s="30" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="65"/>
-      <c r="B49" s="62"/>
+      <c r="A49" s="48"/>
+      <c r="B49" s="45"/>
       <c r="C49" s="35"/>
       <c r="D49" s="35"/>
       <c r="E49" s="22" t="s">
@@ -3145,12 +3487,12 @@
         <v>253</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="65"/>
-      <c r="B50" s="62"/>
+      <c r="A50" s="48"/>
+      <c r="B50" s="45"/>
       <c r="C50" s="35"/>
       <c r="D50" s="35"/>
       <c r="E50" s="22" t="s">
@@ -3164,8 +3506,8 @@
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="65"/>
-      <c r="B51" s="62"/>
+      <c r="A51" s="48"/>
+      <c r="B51" s="45"/>
       <c r="C51" s="35"/>
       <c r="D51" s="35"/>
       <c r="E51" s="22" t="s">
@@ -3179,8 +3521,8 @@
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="65"/>
-      <c r="B52" s="62"/>
+      <c r="A52" s="48"/>
+      <c r="B52" s="45"/>
       <c r="C52" s="35"/>
       <c r="D52" s="35"/>
       <c r="E52" s="22" t="s">
@@ -3190,12 +3532,12 @@
         <v>260</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="65"/>
-      <c r="B53" s="62"/>
+      <c r="A53" s="48"/>
+      <c r="B53" s="45"/>
       <c r="C53" s="35" t="s">
         <v>261</v>
       </c>
@@ -3209,12 +3551,12 @@
         <v>66</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="65"/>
-      <c r="B54" s="62"/>
+      <c r="A54" s="48"/>
+      <c r="B54" s="45"/>
       <c r="C54" s="35"/>
       <c r="D54" s="35"/>
       <c r="E54" s="22" t="s">
@@ -3224,40 +3566,40 @@
         <v>103</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="65"/>
-      <c r="B55" s="62"/>
+      <c r="A55" s="48"/>
+      <c r="B55" s="45"/>
       <c r="C55" s="35"/>
       <c r="D55" s="35"/>
       <c r="E55" s="22" t="s">
         <v>264</v>
       </c>
       <c r="F55" s="23" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
       <c r="G55" s="23" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="65"/>
-      <c r="B56" s="62"/>
-      <c r="E56" s="67" t="s">
+      <c r="A56" s="48"/>
+      <c r="B56" s="45"/>
+      <c r="E56" s="37" t="s">
         <v>94</v>
       </c>
-      <c r="F56" s="68" t="s">
-        <v>469</v>
+      <c r="F56" s="38" t="s">
+        <v>460</v>
       </c>
       <c r="G56" s="23" t="s">
-        <v>471</v>
+        <v>462</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="65"/>
-      <c r="B57" s="62"/>
+      <c r="A57" s="48"/>
+      <c r="B57" s="45"/>
       <c r="C57" s="35"/>
       <c r="D57" s="35"/>
       <c r="E57" s="22" t="s">
@@ -3267,27 +3609,27 @@
         <v>266</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="65"/>
-      <c r="B58" s="62"/>
+      <c r="A58" s="48"/>
+      <c r="B58" s="45"/>
       <c r="C58" s="4"/>
       <c r="D58" s="4"/>
       <c r="E58" s="22" t="s">
         <v>267</v>
       </c>
       <c r="F58" s="23" t="s">
-        <v>473</v>
+        <v>464</v>
       </c>
       <c r="G58" s="23" t="s">
-        <v>472</v>
+        <v>463</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="65"/>
-      <c r="B59" s="62"/>
+      <c r="A59" s="48"/>
+      <c r="B59" s="45"/>
       <c r="C59" s="4"/>
       <c r="D59" s="4"/>
       <c r="E59" s="32" t="s">
@@ -3297,12 +3639,12 @@
         <v>88</v>
       </c>
       <c r="G59" s="30" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="65"/>
-      <c r="B60" s="62"/>
+      <c r="A60" s="48"/>
+      <c r="B60" s="45"/>
       <c r="C60" s="4"/>
       <c r="D60" s="4"/>
       <c r="E60" s="32" t="s">
@@ -3312,12 +3654,12 @@
         <v>268</v>
       </c>
       <c r="G60" s="30" t="s">
-        <v>474</v>
+        <v>465</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="65"/>
-      <c r="B61" s="62"/>
+      <c r="A61" s="48"/>
+      <c r="B61" s="45"/>
       <c r="C61" s="4"/>
       <c r="D61" s="4"/>
       <c r="E61" s="32" t="s">
@@ -3331,8 +3673,8 @@
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="65"/>
-      <c r="B62" s="62"/>
+      <c r="A62" s="48"/>
+      <c r="B62" s="45"/>
       <c r="C62" s="35" t="s">
         <v>192</v>
       </c>
@@ -3350,8 +3692,8 @@
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="65"/>
-      <c r="B63" s="62"/>
+      <c r="A63" s="48"/>
+      <c r="B63" s="45"/>
       <c r="C63" s="35"/>
       <c r="D63" s="35"/>
       <c r="E63" s="32" t="s">
@@ -3365,8 +3707,8 @@
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="65"/>
-      <c r="B64" s="62"/>
+      <c r="A64" s="48"/>
+      <c r="B64" s="45"/>
       <c r="C64" s="35"/>
       <c r="D64" s="35"/>
       <c r="E64" s="32" t="s">
@@ -3380,8 +3722,8 @@
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="65"/>
-      <c r="B65" s="62"/>
+      <c r="A65" s="48"/>
+      <c r="B65" s="45"/>
       <c r="C65" s="35"/>
       <c r="D65" s="35"/>
       <c r="E65" s="32" t="s">
@@ -3395,8 +3737,8 @@
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="65"/>
-      <c r="B66" s="62"/>
+      <c r="A66" s="48"/>
+      <c r="B66" s="45"/>
       <c r="C66" s="35"/>
       <c r="D66" s="35"/>
       <c r="E66" s="32" t="s">
@@ -3410,8 +3752,8 @@
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="65"/>
-      <c r="B67" s="62"/>
+      <c r="A67" s="48"/>
+      <c r="B67" s="45"/>
       <c r="C67" s="35"/>
       <c r="D67" s="35"/>
       <c r="E67" s="32" t="s">
@@ -3421,12 +3763,12 @@
         <v>66</v>
       </c>
       <c r="G67" s="30" t="s">
-        <v>475</v>
+        <v>466</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" s="65"/>
-      <c r="B68" s="62"/>
+      <c r="A68" s="48"/>
+      <c r="B68" s="45"/>
       <c r="C68" s="20"/>
       <c r="D68" s="20"/>
       <c r="E68" s="32" t="s">
@@ -3440,8 +3782,8 @@
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" s="65"/>
-      <c r="B69" s="62"/>
+      <c r="A69" s="48"/>
+      <c r="B69" s="45"/>
       <c r="C69" s="4"/>
       <c r="D69" s="4"/>
       <c r="E69" s="32" t="s">
@@ -3455,8 +3797,8 @@
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" s="65"/>
-      <c r="B70" s="62"/>
+      <c r="A70" s="48"/>
+      <c r="B70" s="45"/>
       <c r="C70" s="4" t="s">
         <v>192</v>
       </c>
@@ -3470,12 +3812,12 @@
         <v>288</v>
       </c>
       <c r="G70" s="30" t="s">
-        <v>476</v>
+        <v>467</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" s="66"/>
-      <c r="B71" s="63"/>
+      <c r="A71" s="49"/>
+      <c r="B71" s="46"/>
       <c r="C71" s="4" t="s">
         <v>234</v>
       </c>
@@ -3493,11 +3835,11 @@
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" s="61" t="s">
-        <v>345</v>
-      </c>
-      <c r="B72" s="58" t="s">
-        <v>346</v>
+      <c r="A72" s="44" t="s">
+        <v>336</v>
+      </c>
+      <c r="B72" s="41" t="s">
+        <v>337</v>
       </c>
       <c r="C72" s="4"/>
       <c r="D72" s="4"/>
@@ -3508,102 +3850,102 @@
         <v>66</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" s="62"/>
-      <c r="B73" s="59"/>
+      <c r="A73" s="45"/>
+      <c r="B73" s="42"/>
       <c r="C73" s="4"/>
       <c r="D73" s="4"/>
       <c r="E73" s="4" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="G73" s="30" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" s="62"/>
-      <c r="B74" s="59"/>
+      <c r="A74" s="45"/>
+      <c r="B74" s="42"/>
       <c r="C74" s="4"/>
       <c r="D74" s="4"/>
       <c r="E74" s="4" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="G74" s="30" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" s="62"/>
-      <c r="B75" s="59"/>
+      <c r="A75" s="45"/>
+      <c r="B75" s="42"/>
       <c r="C75" s="4"/>
       <c r="D75" s="4"/>
       <c r="E75" s="4" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="G75" s="30" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" s="62"/>
-      <c r="B76" s="59"/>
+      <c r="A76" s="45"/>
+      <c r="B76" s="42"/>
       <c r="C76" s="4"/>
       <c r="D76" s="4"/>
       <c r="E76" s="4" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="G76" s="30" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" s="62"/>
-      <c r="B77" s="59"/>
+      <c r="A77" s="45"/>
+      <c r="B77" s="42"/>
       <c r="C77" s="4"/>
       <c r="D77" s="4"/>
       <c r="E77" s="4" t="s">
         <v>87</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="G77" s="30" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78" s="62"/>
-      <c r="B78" s="59"/>
+      <c r="A78" s="45"/>
+      <c r="B78" s="42"/>
       <c r="C78" s="4"/>
       <c r="D78" s="4"/>
       <c r="E78" s="4" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="G78" s="30" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79" s="62"/>
-      <c r="B79" s="59"/>
+      <c r="A79" s="45"/>
+      <c r="B79" s="42"/>
       <c r="C79" s="4" t="s">
         <v>181</v>
       </c>
@@ -3614,90 +3956,90 @@
         <v>183</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="G79" s="30" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80" s="62"/>
-      <c r="B80" s="59"/>
+      <c r="A80" s="45"/>
+      <c r="B80" s="42"/>
       <c r="C80" s="4"/>
       <c r="D80" s="4"/>
       <c r="E80" s="4" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="G80" s="30" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" s="62"/>
-      <c r="B81" s="59"/>
+      <c r="A81" s="45"/>
+      <c r="B81" s="42"/>
       <c r="C81" s="4"/>
       <c r="D81" s="4"/>
       <c r="E81" s="4" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="G81" s="30" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" s="62"/>
-      <c r="B82" s="59"/>
+      <c r="A82" s="45"/>
+      <c r="B82" s="42"/>
       <c r="C82" s="4"/>
       <c r="D82" s="4"/>
       <c r="E82" s="4" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="G82" s="30" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83" s="62"/>
-      <c r="B83" s="59"/>
+      <c r="A83" s="45"/>
+      <c r="B83" s="42"/>
       <c r="C83" s="4"/>
       <c r="D83" s="4"/>
       <c r="E83" s="4" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="F83" s="4" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="G83" s="30" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" s="62"/>
-      <c r="B84" s="59"/>
+      <c r="A84" s="45"/>
+      <c r="B84" s="42"/>
       <c r="C84" s="4"/>
       <c r="D84" s="4"/>
       <c r="E84" s="4" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="G84" s="30" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" s="62"/>
-      <c r="B85" s="59"/>
+      <c r="A85" s="45"/>
+      <c r="B85" s="42"/>
       <c r="C85" s="4"/>
       <c r="D85" s="4"/>
       <c r="E85" s="4" t="s">
@@ -3707,44 +4049,44 @@
         <v>85</v>
       </c>
       <c r="G85" s="30" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" s="62"/>
-      <c r="B86" s="59"/>
+      <c r="A86" s="45"/>
+      <c r="B86" s="42"/>
       <c r="C86" s="4"/>
       <c r="D86" s="4"/>
       <c r="E86" s="4" t="s">
         <v>94</v>
       </c>
       <c r="F86" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="G86" s="30" t="s">
         <v>368</v>
       </c>
-      <c r="G86" s="30" t="s">
-        <v>377</v>
-      </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87" s="62"/>
-      <c r="B87" s="59"/>
+      <c r="A87" s="45"/>
+      <c r="B87" s="42"/>
       <c r="C87" s="4"/>
       <c r="D87" s="4"/>
       <c r="E87" s="4" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
       <c r="F87" s="4" t="s">
         <v>270</v>
       </c>
       <c r="G87" s="30" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88" s="62"/>
-      <c r="B88" s="59"/>
+      <c r="A88" s="45"/>
+      <c r="B88" s="42"/>
       <c r="C88" s="4" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="D88" s="4" t="s">
         <v>66</v>
@@ -3753,19 +4095,19 @@
         <v>183</v>
       </c>
       <c r="F88" s="4" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="G88" s="30" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A89" s="62"/>
-      <c r="B89" s="59"/>
+      <c r="A89" s="45"/>
+      <c r="B89" s="42"/>
       <c r="C89" s="4"/>
       <c r="D89" s="4"/>
       <c r="E89" s="4" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="F89" s="4" t="s">
         <v>281</v>
@@ -3775,12 +4117,12 @@
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A90" s="62"/>
-      <c r="B90" s="59"/>
+      <c r="A90" s="45"/>
+      <c r="B90" s="42"/>
       <c r="C90" s="4"/>
       <c r="D90" s="4"/>
       <c r="E90" s="32" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="F90" s="30" t="s">
         <v>280</v>
@@ -3790,8 +4132,8 @@
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A91" s="63"/>
-      <c r="B91" s="60"/>
+      <c r="A91" s="46"/>
+      <c r="B91" s="43"/>
       <c r="C91" s="4" t="s">
         <v>234</v>
       </c>
@@ -3809,162 +4151,162 @@
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A92" s="61" t="s">
-        <v>382</v>
-      </c>
-      <c r="B92" s="58" t="s">
-        <v>383</v>
+      <c r="A92" s="44" t="s">
+        <v>373</v>
+      </c>
+      <c r="B92" s="41" t="s">
+        <v>374</v>
       </c>
       <c r="C92" s="4"/>
       <c r="D92" s="4"/>
       <c r="E92" s="23" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="F92" s="30" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="G92" s="30" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A93" s="62"/>
-      <c r="B93" s="59"/>
+      <c r="A93" s="45"/>
+      <c r="B93" s="42"/>
       <c r="C93" s="4"/>
       <c r="D93" s="4"/>
       <c r="E93" s="23" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="F93" s="30" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="G93" s="30" t="s">
-        <v>432</v>
+        <v>423</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A94" s="62"/>
-      <c r="B94" s="59"/>
+      <c r="A94" s="45"/>
+      <c r="B94" s="42"/>
       <c r="C94" s="4"/>
       <c r="D94" s="4"/>
       <c r="E94" s="23" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="F94" s="30" t="s">
         <v>85</v>
       </c>
       <c r="G94" s="30" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A95" s="62"/>
-      <c r="B95" s="59"/>
+      <c r="A95" s="45"/>
+      <c r="B95" s="42"/>
       <c r="C95" s="4"/>
       <c r="D95" s="4"/>
       <c r="E95" s="23" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="F95" s="30" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="G95" s="30" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A96" s="62"/>
-      <c r="B96" s="59"/>
+      <c r="A96" s="45"/>
+      <c r="B96" s="42"/>
       <c r="C96" s="4"/>
       <c r="D96" s="4"/>
       <c r="E96" s="23" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="F96" s="30" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="G96" s="30" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A97" s="62"/>
-      <c r="B97" s="59"/>
+      <c r="A97" s="45"/>
+      <c r="B97" s="42"/>
       <c r="C97" s="4"/>
       <c r="D97" s="4"/>
       <c r="E97" s="23" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="F97" s="30" t="s">
         <v>66</v>
       </c>
       <c r="G97" s="4" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A98" s="62"/>
-      <c r="B98" s="59"/>
+      <c r="A98" s="45"/>
+      <c r="B98" s="42"/>
       <c r="C98" s="4"/>
       <c r="D98" s="4"/>
       <c r="E98" s="23" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="F98" s="30" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="G98" s="30" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A99" s="62"/>
-      <c r="B99" s="59"/>
+      <c r="A99" s="45"/>
+      <c r="B99" s="42"/>
       <c r="C99" s="4"/>
       <c r="D99" s="4"/>
       <c r="E99" s="23" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="F99" s="30" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="G99" s="30" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A100" s="62"/>
-      <c r="B100" s="59"/>
+      <c r="A100" s="45"/>
+      <c r="B100" s="42"/>
       <c r="C100" s="4"/>
       <c r="D100" s="4"/>
       <c r="E100" s="23" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="F100" s="30" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="G100" s="30" t="s">
-        <v>438</v>
+        <v>429</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A101" s="62"/>
-      <c r="B101" s="59"/>
+      <c r="A101" s="45"/>
+      <c r="B101" s="42"/>
       <c r="C101" s="4"/>
       <c r="D101" s="4"/>
       <c r="E101" s="23" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="F101" s="30" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="G101" s="30" t="s">
-        <v>439</v>
+        <v>430</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A102" s="62"/>
-      <c r="B102" s="59"/>
+      <c r="A102" s="45"/>
+      <c r="B102" s="42"/>
       <c r="C102" s="4" t="s">
         <v>181</v>
       </c>
@@ -3975,34 +4317,34 @@
         <v>183</v>
       </c>
       <c r="F102" s="4" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="G102" s="30" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A103" s="62"/>
-      <c r="B103" s="59"/>
+      <c r="A103" s="45"/>
+      <c r="B103" s="42"/>
       <c r="C103" s="4"/>
       <c r="D103" s="4"/>
       <c r="E103" s="31" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="F103" s="30" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="G103" s="4" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A104" s="62"/>
-      <c r="B104" s="59"/>
+      <c r="A104" s="45"/>
+      <c r="B104" s="42"/>
       <c r="C104" s="4"/>
       <c r="D104" s="4"/>
       <c r="E104" s="31" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="F104" s="30" t="s">
         <v>189</v>
@@ -4012,23 +4354,23 @@
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A105" s="62"/>
-      <c r="B105" s="59"/>
+      <c r="A105" s="45"/>
+      <c r="B105" s="42"/>
       <c r="C105" s="4"/>
       <c r="D105" s="4"/>
       <c r="E105" s="31" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="F105" s="30" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="G105" s="4" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A106" s="62"/>
-      <c r="B106" s="59"/>
+      <c r="A106" s="45"/>
+      <c r="B106" s="42"/>
       <c r="C106" s="4" t="s">
         <v>261</v>
       </c>
@@ -4040,98 +4382,98 @@
       <c r="G106" s="4"/>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A107" s="62"/>
-      <c r="B107" s="59"/>
+      <c r="A107" s="45"/>
+      <c r="B107" s="42"/>
       <c r="C107" s="4"/>
       <c r="D107" s="4"/>
       <c r="E107" s="22" t="s">
         <v>190</v>
       </c>
       <c r="F107" s="4" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="G107" s="4" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A108" s="62"/>
-      <c r="B108" s="59"/>
+      <c r="A108" s="45"/>
+      <c r="B108" s="42"/>
       <c r="C108" s="4"/>
       <c r="D108" s="4"/>
       <c r="E108" s="31" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
       <c r="F108" s="30" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="G108" s="4" t="s">
-        <v>430</v>
+        <v>421</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A109" s="62"/>
-      <c r="B109" s="59"/>
+      <c r="A109" s="45"/>
+      <c r="B109" s="42"/>
       <c r="C109" s="4"/>
       <c r="D109" s="4"/>
       <c r="E109" s="31" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="F109" s="30" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
       <c r="G109" s="4" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A110" s="62"/>
-      <c r="B110" s="59"/>
+      <c r="A110" s="45"/>
+      <c r="B110" s="42"/>
       <c r="C110" s="4"/>
       <c r="D110" s="4"/>
       <c r="E110" s="31" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="F110" s="30" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="G110" s="4" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A111" s="62"/>
-      <c r="B111" s="59"/>
+      <c r="A111" s="45"/>
+      <c r="B111" s="42"/>
       <c r="C111" s="4"/>
       <c r="D111" s="4"/>
       <c r="E111" s="31" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
       <c r="F111" s="30" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
       <c r="G111" s="4" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A112" s="62"/>
-      <c r="B112" s="59"/>
+      <c r="A112" s="45"/>
+      <c r="B112" s="42"/>
       <c r="C112" s="4"/>
       <c r="D112" s="4"/>
       <c r="E112" s="31" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
       <c r="F112" s="30" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
       <c r="G112" s="30" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A113" s="62"/>
-      <c r="B113" s="59"/>
+      <c r="A113" s="45"/>
+      <c r="B113" s="42"/>
       <c r="C113" s="4" t="s">
         <v>192</v>
       </c>
@@ -4142,15 +4484,15 @@
         <v>183</v>
       </c>
       <c r="F113" s="30" t="s">
-        <v>453</v>
+        <v>444</v>
       </c>
       <c r="G113" s="30" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A114" s="62"/>
-      <c r="B114" s="59"/>
+      <c r="A114" s="45"/>
+      <c r="B114" s="42"/>
       <c r="C114" s="4"/>
       <c r="D114" s="4"/>
       <c r="E114" s="31" t="s">
@@ -4160,12 +4502,12 @@
         <v>280</v>
       </c>
       <c r="G114" s="30" t="s">
-        <v>454</v>
+        <v>445</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A115" s="63"/>
-      <c r="B115" s="60"/>
+      <c r="A115" s="46"/>
+      <c r="B115" s="43"/>
       <c r="C115" s="4" t="s">
         <v>234</v>
       </c>
@@ -4184,6 +4526,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B72:B91"/>
+    <mergeCell ref="A72:A91"/>
+    <mergeCell ref="B45:B71"/>
+    <mergeCell ref="A45:A71"/>
+    <mergeCell ref="A92:A115"/>
+    <mergeCell ref="B92:B115"/>
     <mergeCell ref="G41:G42"/>
     <mergeCell ref="C25:C42"/>
     <mergeCell ref="D25:D42"/>
@@ -4193,12 +4541,6 @@
     <mergeCell ref="D11:D15"/>
     <mergeCell ref="G26:G33"/>
     <mergeCell ref="B2:B44"/>
-    <mergeCell ref="B72:B91"/>
-    <mergeCell ref="A72:A91"/>
-    <mergeCell ref="B45:B71"/>
-    <mergeCell ref="A45:A71"/>
-    <mergeCell ref="A92:A115"/>
-    <mergeCell ref="B92:B115"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4207,10 +4549,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G34"/>
+  <dimension ref="A1:G80"/>
   <sheetViews>
-    <sheetView topLeftCell="D10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20:G21"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="F81" sqref="F81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4248,10 +4590,10 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="56" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="9"/>
@@ -4267,8 +4609,8 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="51"/>
-      <c r="B3" s="54"/>
+      <c r="A3" s="54"/>
+      <c r="B3" s="57"/>
       <c r="C3" s="8"/>
       <c r="E3" s="10" t="s">
         <v>19</v>
@@ -4281,8 +4623,8 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="51"/>
-      <c r="B4" s="54"/>
+      <c r="A4" s="54"/>
+      <c r="B4" s="57"/>
       <c r="C4" s="8"/>
       <c r="D4" s="6"/>
       <c r="E4" s="10" t="s">
@@ -4296,8 +4638,8 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="51"/>
-      <c r="B5" s="54"/>
+      <c r="A5" s="54"/>
+      <c r="B5" s="57"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="10" t="s">
@@ -4311,8 +4653,8 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="51"/>
-      <c r="B6" s="54"/>
+      <c r="A6" s="54"/>
+      <c r="B6" s="57"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="10" t="s">
@@ -4326,8 +4668,8 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="51"/>
-      <c r="B7" s="54"/>
+      <c r="A7" s="54"/>
+      <c r="B7" s="57"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="10" t="s">
@@ -4341,8 +4683,8 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="51"/>
-      <c r="B8" s="54"/>
+      <c r="A8" s="54"/>
+      <c r="B8" s="57"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="10" t="s">
@@ -4356,8 +4698,8 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="51"/>
-      <c r="B9" s="54"/>
+      <c r="A9" s="54"/>
+      <c r="B9" s="57"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="11" t="s">
@@ -4371,8 +4713,8 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="51"/>
-      <c r="B10" s="54"/>
+      <c r="A10" s="54"/>
+      <c r="B10" s="57"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="12" t="s">
@@ -4386,8 +4728,8 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="51"/>
-      <c r="B11" s="54"/>
+      <c r="A11" s="54"/>
+      <c r="B11" s="57"/>
       <c r="C11" s="1"/>
       <c r="D11" s="2"/>
       <c r="E11" s="13" t="s">
@@ -4401,8 +4743,8 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="51"/>
-      <c r="B12" s="54"/>
+      <c r="A12" s="54"/>
+      <c r="B12" s="57"/>
       <c r="C12" s="1"/>
       <c r="D12" s="2"/>
       <c r="E12" s="13" t="s">
@@ -4416,8 +4758,8 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="51"/>
-      <c r="B13" s="54"/>
+      <c r="A13" s="54"/>
+      <c r="B13" s="57"/>
       <c r="C13" s="1"/>
       <c r="D13" s="2"/>
       <c r="E13" s="13" t="s">
@@ -4431,8 +4773,8 @@
       </c>
     </row>
     <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="51"/>
-      <c r="B14" s="54"/>
+      <c r="A14" s="54"/>
+      <c r="B14" s="57"/>
       <c r="C14" s="1"/>
       <c r="D14" s="2"/>
       <c r="E14" s="14" t="s">
@@ -4446,8 +4788,8 @@
       </c>
     </row>
     <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="51"/>
-      <c r="B15" s="54"/>
+      <c r="A15" s="54"/>
+      <c r="B15" s="57"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="10" t="s">
@@ -4461,8 +4803,8 @@
       </c>
     </row>
     <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="51"/>
-      <c r="B16" s="54"/>
+      <c r="A16" s="54"/>
+      <c r="B16" s="57"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="10" t="s">
@@ -4476,8 +4818,8 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="51"/>
-      <c r="B17" s="54"/>
+      <c r="A17" s="54"/>
+      <c r="B17" s="57"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="10" t="s">
@@ -4491,12 +4833,12 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="51"/>
-      <c r="B18" s="54"/>
-      <c r="C18" s="43" t="s">
+      <c r="A18" s="54"/>
+      <c r="B18" s="57"/>
+      <c r="C18" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="D18" s="40" t="s">
+      <c r="D18" s="60" t="s">
         <v>78</v>
       </c>
       <c r="E18" s="4" t="s">
@@ -4505,56 +4847,56 @@
       <c r="F18" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="G18" s="46" t="s">
+      <c r="G18" s="63" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="51"/>
-      <c r="B19" s="54"/>
-      <c r="C19" s="44"/>
-      <c r="D19" s="41"/>
+      <c r="A19" s="54"/>
+      <c r="B19" s="57"/>
+      <c r="C19" s="51"/>
+      <c r="D19" s="61"/>
       <c r="E19" s="4" t="s">
         <v>57</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="G19" s="47"/>
+      <c r="G19" s="64"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="51"/>
-      <c r="B20" s="54"/>
-      <c r="C20" s="44"/>
-      <c r="D20" s="41"/>
+      <c r="A20" s="54"/>
+      <c r="B20" s="57"/>
+      <c r="C20" s="51"/>
+      <c r="D20" s="61"/>
       <c r="E20" s="4" t="s">
         <v>58</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="G20" s="48" t="s">
+      <c r="G20" s="65" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="51"/>
-      <c r="B21" s="54"/>
-      <c r="C21" s="44"/>
-      <c r="D21" s="41"/>
+      <c r="A21" s="54"/>
+      <c r="B21" s="57"/>
+      <c r="C21" s="51"/>
+      <c r="D21" s="61"/>
       <c r="E21" s="4" t="s">
         <v>59</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="G21" s="49"/>
+      <c r="G21" s="66"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="51"/>
-      <c r="B22" s="54"/>
-      <c r="C22" s="44"/>
-      <c r="D22" s="41"/>
+      <c r="A22" s="54"/>
+      <c r="B22" s="57"/>
+      <c r="C22" s="51"/>
+      <c r="D22" s="61"/>
       <c r="E22" s="4" t="s">
         <v>61</v>
       </c>
@@ -4566,10 +4908,10 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="51"/>
-      <c r="B23" s="54"/>
-      <c r="C23" s="44"/>
-      <c r="D23" s="41"/>
+      <c r="A23" s="54"/>
+      <c r="B23" s="57"/>
+      <c r="C23" s="51"/>
+      <c r="D23" s="61"/>
       <c r="E23" s="4" t="s">
         <v>63</v>
       </c>
@@ -4581,10 +4923,10 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="51"/>
-      <c r="B24" s="54"/>
-      <c r="C24" s="44"/>
-      <c r="D24" s="41"/>
+      <c r="A24" s="54"/>
+      <c r="B24" s="57"/>
+      <c r="C24" s="51"/>
+      <c r="D24" s="61"/>
       <c r="E24" s="4" t="s">
         <v>65</v>
       </c>
@@ -4596,10 +4938,10 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="51"/>
-      <c r="B25" s="54"/>
-      <c r="C25" s="44"/>
-      <c r="D25" s="41"/>
+      <c r="A25" s="54"/>
+      <c r="B25" s="57"/>
+      <c r="C25" s="51"/>
+      <c r="D25" s="61"/>
       <c r="E25" s="4" t="s">
         <v>68</v>
       </c>
@@ -4611,10 +4953,10 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="52"/>
-      <c r="B26" s="55"/>
-      <c r="C26" s="45"/>
-      <c r="D26" s="42"/>
+      <c r="A26" s="55"/>
+      <c r="B26" s="58"/>
+      <c r="C26" s="52"/>
+      <c r="D26" s="62"/>
       <c r="E26" s="4" t="s">
         <v>79</v>
       </c>
@@ -4626,135 +4968,826 @@
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="50" t="s">
+      <c r="A27" s="53" t="s">
         <v>322</v>
       </c>
-      <c r="B27" s="43" t="s">
-        <v>323</v>
+      <c r="B27" s="50" t="s">
+        <v>479</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="10" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F27" s="14" t="s">
-        <v>325</v>
+        <v>487</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>326</v>
+        <v>480</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="51"/>
-      <c r="B28" s="44"/>
+      <c r="A28" s="54"/>
+      <c r="B28" s="51"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="10" t="s">
         <v>34</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>327</v>
+        <v>481</v>
       </c>
       <c r="G28" s="15" t="s">
-        <v>328</v>
+        <v>482</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="51"/>
-      <c r="B29" s="44"/>
+      <c r="A29" s="54"/>
+      <c r="B29" s="51"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="10" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>331</v>
+        <v>483</v>
       </c>
       <c r="G29" s="15" t="s">
-        <v>332</v>
+        <v>484</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="52"/>
-      <c r="B30" s="45"/>
+      <c r="A30" s="55"/>
+      <c r="B30" s="52"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="10" t="s">
         <v>37</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>333</v>
+        <v>485</v>
       </c>
       <c r="G30" s="15" t="s">
-        <v>329</v>
+        <v>486</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="50" t="s">
-        <v>334</v>
-      </c>
-      <c r="B31" s="43" t="s">
-        <v>335</v>
+      <c r="A31" s="53" t="s">
+        <v>325</v>
+      </c>
+      <c r="B31" s="50" t="s">
+        <v>326</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="36" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="G31" s="15" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="51"/>
-      <c r="B32" s="44"/>
+      <c r="A32" s="54"/>
+      <c r="B32" s="51"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="36" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="G32" s="15" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="52"/>
-      <c r="B33" s="45"/>
+      <c r="A33" s="55"/>
+      <c r="B33" s="52"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="36" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="G33" s="15" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E34" s="37"/>
+      <c r="A34" s="40" t="s">
+        <v>488</v>
+      </c>
+      <c r="B34" s="40" t="s">
+        <v>489</v>
+      </c>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="23" t="s">
+        <v>490</v>
+      </c>
+      <c r="F34" s="30" t="s">
+        <v>503</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="40"/>
+      <c r="B35" s="40"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="32" t="s">
+        <v>491</v>
+      </c>
+      <c r="F35" s="30" t="s">
+        <v>504</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="40"/>
+      <c r="B36" s="40"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="32" t="s">
+        <v>492</v>
+      </c>
+      <c r="F36" s="30" t="s">
+        <v>505</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="40"/>
+      <c r="B37" s="40"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="32" t="s">
+        <v>493</v>
+      </c>
+      <c r="F37" s="30" t="s">
+        <v>506</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="40"/>
+      <c r="B38" s="40"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="32" t="s">
+        <v>494</v>
+      </c>
+      <c r="F38" s="30" t="s">
+        <v>507</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="40"/>
+      <c r="B39" s="40"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="32" t="s">
+        <v>495</v>
+      </c>
+      <c r="F39" s="30" t="s">
+        <v>508</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="40"/>
+      <c r="B40" s="40"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="32" t="s">
+        <v>496</v>
+      </c>
+      <c r="F40" s="30" t="s">
+        <v>509</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="40"/>
+      <c r="B41" s="40"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="32" t="s">
+        <v>497</v>
+      </c>
+      <c r="F41" s="30" t="s">
+        <v>510</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="40"/>
+      <c r="B42" s="40"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="32" t="s">
+        <v>498</v>
+      </c>
+      <c r="F42" s="30" t="s">
+        <v>511</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="40"/>
+      <c r="B43" s="40"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="32" t="s">
+        <v>499</v>
+      </c>
+      <c r="F43" s="30" t="s">
+        <v>499</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="40"/>
+      <c r="B44" s="40"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="32" t="s">
+        <v>500</v>
+      </c>
+      <c r="F44" s="30" t="s">
+        <v>512</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="40"/>
+      <c r="B45" s="40"/>
+      <c r="C45" s="4" t="s">
+        <v>501</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>502</v>
+      </c>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="40"/>
+      <c r="B46" s="40"/>
+      <c r="C46" s="4" t="s">
+        <v>524</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>525</v>
+      </c>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="40"/>
+      <c r="B47" s="40"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4" t="s">
+        <v>526</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>528</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="40"/>
+      <c r="B48" s="40"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4" t="s">
+        <v>529</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>530</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="40"/>
+      <c r="B49" s="40"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4" t="s">
+        <v>532</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>533</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="40"/>
+      <c r="B50" s="40"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4" t="s">
+        <v>535</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>536</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="40"/>
+      <c r="B51" s="40"/>
+      <c r="C51" s="4"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4" t="s">
+        <v>538</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>539</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="40"/>
+      <c r="B52" s="40"/>
+      <c r="C52" s="4"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="38" t="s">
+        <v>580</v>
+      </c>
+      <c r="F52" s="38" t="s">
+        <v>581</v>
+      </c>
+      <c r="G52" s="38" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="40"/>
+      <c r="B53" s="40"/>
+      <c r="C53" s="4"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4" t="s">
+        <v>541</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>542</v>
+      </c>
+      <c r="G53" s="4" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="40"/>
+      <c r="B54" s="40"/>
+      <c r="C54" s="4"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="4" t="s">
+        <v>544</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>545</v>
+      </c>
+      <c r="G54" s="4" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="40"/>
+      <c r="B55" s="40"/>
+      <c r="C55" s="4"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="4" t="s">
+        <v>547</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>548</v>
+      </c>
+      <c r="G55" s="4" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="72" t="s">
+        <v>550</v>
+      </c>
+      <c r="B56" s="72" t="s">
+        <v>551</v>
+      </c>
+      <c r="C56" s="68"/>
+      <c r="D56" s="68"/>
+      <c r="E56" s="69" t="s">
+        <v>552</v>
+      </c>
+      <c r="F56" s="69" t="s">
+        <v>553</v>
+      </c>
+      <c r="G56" s="69" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="73"/>
+      <c r="B57" s="73"/>
+      <c r="C57" s="68"/>
+      <c r="D57" s="68"/>
+      <c r="E57" s="69" t="s">
+        <v>555</v>
+      </c>
+      <c r="F57" s="69" t="s">
+        <v>556</v>
+      </c>
+      <c r="G57" s="69" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="73"/>
+      <c r="B58" s="73"/>
+      <c r="C58" s="68"/>
+      <c r="D58" s="68"/>
+      <c r="E58" s="69" t="s">
+        <v>558</v>
+      </c>
+      <c r="F58" s="69" t="s">
+        <v>559</v>
+      </c>
+      <c r="G58" s="69" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="73"/>
+      <c r="B59" s="73"/>
+      <c r="C59" s="68"/>
+      <c r="D59" s="68"/>
+      <c r="E59" s="69" t="s">
+        <v>561</v>
+      </c>
+      <c r="F59" s="69" t="s">
+        <v>562</v>
+      </c>
+      <c r="G59" s="69" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="73"/>
+      <c r="B60" s="73"/>
+      <c r="C60" s="68"/>
+      <c r="D60" s="68"/>
+      <c r="E60" s="69" t="s">
+        <v>565</v>
+      </c>
+      <c r="F60" s="69" t="s">
+        <v>566</v>
+      </c>
+      <c r="G60" s="69" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="73"/>
+      <c r="B61" s="73"/>
+      <c r="C61" s="68"/>
+      <c r="D61" s="68"/>
+      <c r="E61" s="69" t="s">
+        <v>567</v>
+      </c>
+      <c r="F61" s="69" t="s">
+        <v>568</v>
+      </c>
+      <c r="G61" s="69" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="73"/>
+      <c r="B62" s="73"/>
+      <c r="C62" s="68"/>
+      <c r="D62" s="68"/>
+      <c r="E62" s="69" t="s">
+        <v>570</v>
+      </c>
+      <c r="F62" s="69" t="s">
+        <v>330</v>
+      </c>
+      <c r="G62" s="69" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="73"/>
+      <c r="B63" s="73"/>
+      <c r="C63" s="68" t="s">
+        <v>572</v>
+      </c>
+      <c r="D63" s="68" t="s">
+        <v>573</v>
+      </c>
+      <c r="E63" s="68"/>
+      <c r="F63" s="68"/>
+      <c r="G63" s="68" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="73"/>
+      <c r="B64" s="73"/>
+      <c r="C64" s="72" t="s">
+        <v>574</v>
+      </c>
+      <c r="D64" s="72" t="s">
+        <v>597</v>
+      </c>
+      <c r="E64" s="68" t="s">
+        <v>532</v>
+      </c>
+      <c r="F64" s="68" t="s">
+        <v>533</v>
+      </c>
+      <c r="G64" s="68"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="73"/>
+      <c r="B65" s="73"/>
+      <c r="C65" s="73"/>
+      <c r="D65" s="73"/>
+      <c r="E65" s="69" t="s">
+        <v>583</v>
+      </c>
+      <c r="F65" s="69" t="s">
+        <v>584</v>
+      </c>
+      <c r="G65" s="30" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="73"/>
+      <c r="B66" s="73"/>
+      <c r="C66" s="73"/>
+      <c r="D66" s="73"/>
+      <c r="E66" s="30" t="s">
+        <v>580</v>
+      </c>
+      <c r="F66" s="30" t="s">
+        <v>581</v>
+      </c>
+      <c r="G66" s="30" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="73"/>
+      <c r="B67" s="73"/>
+      <c r="C67" s="73"/>
+      <c r="D67" s="73"/>
+      <c r="E67" s="68" t="s">
+        <v>576</v>
+      </c>
+      <c r="F67" s="68" t="s">
+        <v>528</v>
+      </c>
+      <c r="G67" s="68" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" s="73"/>
+      <c r="B68" s="73"/>
+      <c r="C68" s="73"/>
+      <c r="D68" s="73"/>
+      <c r="E68" s="68" t="s">
+        <v>529</v>
+      </c>
+      <c r="F68" s="68" t="s">
+        <v>530</v>
+      </c>
+      <c r="G68" s="68" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" s="73"/>
+      <c r="B69" s="73"/>
+      <c r="C69" s="73"/>
+      <c r="D69" s="73"/>
+      <c r="E69" s="68" t="s">
+        <v>577</v>
+      </c>
+      <c r="F69" s="68" t="s">
+        <v>539</v>
+      </c>
+      <c r="G69" s="68" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" s="73"/>
+      <c r="B70" s="73"/>
+      <c r="C70" s="74"/>
+      <c r="D70" s="74"/>
+      <c r="E70" s="69" t="s">
+        <v>578</v>
+      </c>
+      <c r="F70" s="69" t="s">
+        <v>566</v>
+      </c>
+      <c r="G70" s="69" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" s="73"/>
+      <c r="B71" s="73"/>
+      <c r="C71" s="68"/>
+      <c r="D71" s="68"/>
+      <c r="E71" s="70" t="s">
+        <v>499</v>
+      </c>
+      <c r="F71" s="69" t="s">
+        <v>499</v>
+      </c>
+      <c r="G71" s="68" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" s="73"/>
+      <c r="B72" s="73"/>
+      <c r="C72" s="4"/>
+      <c r="D72" s="4"/>
+      <c r="E72" s="70" t="s">
+        <v>500</v>
+      </c>
+      <c r="F72" s="69" t="s">
+        <v>512</v>
+      </c>
+      <c r="G72" s="68" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" s="73"/>
+      <c r="B73" s="73"/>
+      <c r="C73" s="4"/>
+      <c r="D73" s="4"/>
+      <c r="E73" s="68" t="s">
+        <v>586</v>
+      </c>
+      <c r="F73" s="68" t="s">
+        <v>587</v>
+      </c>
+      <c r="G73" s="30" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" s="73"/>
+      <c r="B74" s="73"/>
+      <c r="C74" s="4"/>
+      <c r="D74" s="4"/>
+      <c r="E74" s="69" t="s">
+        <v>589</v>
+      </c>
+      <c r="F74" s="69" t="s">
+        <v>590</v>
+      </c>
+      <c r="G74" s="30" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" s="73"/>
+      <c r="B75" s="73"/>
+      <c r="C75" s="4"/>
+      <c r="D75" s="4"/>
+      <c r="E75" s="69" t="s">
+        <v>591</v>
+      </c>
+      <c r="F75" s="69" t="s">
+        <v>595</v>
+      </c>
+      <c r="G75" s="30" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" s="74"/>
+      <c r="B76" s="74"/>
+      <c r="C76" s="4"/>
+      <c r="D76" s="4"/>
+      <c r="E76" s="69" t="s">
+        <v>592</v>
+      </c>
+      <c r="F76" s="69" t="s">
+        <v>596</v>
+      </c>
+      <c r="G76" s="30" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" s="71"/>
+      <c r="B77" s="71"/>
+      <c r="C77" s="71"/>
+      <c r="D77" s="71"/>
+      <c r="E77" s="71"/>
+      <c r="F77" s="71"/>
+      <c r="G77" s="71"/>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" s="71"/>
+      <c r="B78" s="71"/>
+      <c r="C78" s="71"/>
+      <c r="D78" s="71"/>
+      <c r="E78" s="71"/>
+      <c r="F78" s="71"/>
+      <c r="G78" s="71"/>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" s="71"/>
+      <c r="B79" s="71"/>
+      <c r="C79" s="71"/>
+      <c r="D79" s="71"/>
+      <c r="E79" s="71"/>
+      <c r="F79" s="71"/>
+      <c r="G79" s="71"/>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" s="71"/>
+      <c r="B80" s="71"/>
+      <c r="C80" s="71"/>
+      <c r="D80" s="71"/>
+      <c r="E80" s="71"/>
+      <c r="F80" s="71"/>
+      <c r="G80" s="71"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="16">
+    <mergeCell ref="B56:B76"/>
+    <mergeCell ref="A56:A76"/>
+    <mergeCell ref="D64:D70"/>
+    <mergeCell ref="C64:C70"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="B34:B55"/>
+    <mergeCell ref="A34:A55"/>
     <mergeCell ref="B31:B33"/>
     <mergeCell ref="A31:A33"/>
     <mergeCell ref="B2:B26"/>
     <mergeCell ref="A2:A26"/>
     <mergeCell ref="D18:D26"/>
     <mergeCell ref="C18:C26"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="A27:A30"/>
-    <mergeCell ref="B27:B30"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5136,10 +6169,10 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="41" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="41" t="s">
         <v>82</v>
       </c>
       <c r="C2" s="17" t="s">
@@ -5155,16 +6188,16 @@
         <v>85</v>
       </c>
       <c r="G2" s="23" t="s">
-        <v>477</v>
+        <v>468</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="59"/>
-      <c r="B3" s="59"/>
-      <c r="C3" s="38" t="s">
+      <c r="A3" s="42"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="40" t="s">
         <v>92</v>
       </c>
-      <c r="D3" s="57" t="s">
+      <c r="D3" s="67" t="s">
         <v>93</v>
       </c>
       <c r="E3" s="22" t="s">
@@ -5178,10 +6211,10 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="59"/>
-      <c r="B4" s="59"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="57"/>
+      <c r="A4" s="42"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="67"/>
       <c r="E4" s="23" t="s">
         <v>90</v>
       </c>
@@ -5189,22 +6222,22 @@
         <v>91</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>478</v>
+        <v>469</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="60"/>
-      <c r="B5" s="60"/>
+      <c r="A5" s="43"/>
+      <c r="B5" s="43"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="22" t="s">
         <v>94</v>
       </c>
       <c r="F5" s="23" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="G5" s="23" t="s">
-        <v>460</v>
+        <v>451</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -5475,7 +6508,7 @@
   <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5483,7 +6516,7 @@
     <col min="1" max="1" width="46.28515625" customWidth="1"/>
     <col min="2" max="2" width="33.85546875" customWidth="1"/>
     <col min="3" max="3" width="58.85546875" customWidth="1"/>
-    <col min="4" max="4" width="33.28515625" customWidth="1"/>
+    <col min="4" max="4" width="36.5703125" customWidth="1"/>
     <col min="5" max="5" width="33.5703125" customWidth="1"/>
     <col min="6" max="6" width="30.85546875" customWidth="1"/>
     <col min="7" max="7" width="68.85546875" customWidth="1"/>
@@ -5513,10 +6546,10 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="40" t="s">
         <v>96</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="40" t="s">
         <v>97</v>
       </c>
       <c r="C2" s="4"/>
@@ -5528,12 +6561,12 @@
         <v>5</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="38"/>
-      <c r="B3" s="38"/>
+      <c r="A3" s="40"/>
+      <c r="B3" s="40"/>
       <c r="C3" s="3"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4" t="s">
@@ -5543,12 +6576,12 @@
         <v>315</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="38"/>
-      <c r="B4" s="38"/>
+      <c r="A4" s="40"/>
+      <c r="B4" s="40"/>
       <c r="C4" s="19" t="s">
         <v>100</v>
       </c>
@@ -5562,16 +6595,16 @@
         <v>98</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>479</v>
+        <v>470</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="38"/>
-      <c r="B5" s="38"/>
-      <c r="C5" s="38" t="s">
+      <c r="A5" s="40"/>
+      <c r="B5" s="40"/>
+      <c r="C5" s="40" t="s">
         <v>104</v>
       </c>
-      <c r="D5" s="38" t="s">
+      <c r="D5" s="40" t="s">
         <v>105</v>
       </c>
       <c r="E5" s="22" t="s">
@@ -5581,29 +6614,29 @@
         <v>66</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="38"/>
-      <c r="B6" s="38"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
+      <c r="A6" s="40"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
       <c r="E6" s="4" t="s">
         <v>94</v>
       </c>
       <c r="F6" s="23" t="s">
-        <v>486</v>
+        <v>477</v>
       </c>
       <c r="G6" s="23" t="s">
-        <v>485</v>
+        <v>476</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="38"/>
-      <c r="B7" s="38"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
+      <c r="A7" s="40"/>
+      <c r="B7" s="40"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
       <c r="E7" s="4" t="s">
         <v>102</v>
       </c>
@@ -5611,12 +6644,12 @@
         <v>103</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>481</v>
+        <v>472</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="38"/>
-      <c r="B8" s="38"/>
+      <c r="A8" s="40"/>
+      <c r="B8" s="40"/>
       <c r="C8" s="19" t="s">
         <v>106</v>
       </c>
@@ -5634,10 +6667,10 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="58" t="s">
+      <c r="A9" s="41" t="s">
         <v>108</v>
       </c>
-      <c r="B9" s="58" t="s">
+      <c r="B9" s="41" t="s">
         <v>107</v>
       </c>
       <c r="C9" s="19"/>
@@ -5649,12 +6682,12 @@
         <v>110</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>482</v>
+        <v>473</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="59"/>
-      <c r="B10" s="59"/>
+      <c r="A10" s="42"/>
+      <c r="B10" s="42"/>
       <c r="C10" s="25" t="s">
         <v>114</v>
       </c>
@@ -5668,12 +6701,12 @@
         <v>113</v>
       </c>
       <c r="G10" s="27" t="s">
-        <v>483</v>
+        <v>474</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="59"/>
-      <c r="B11" s="59"/>
+      <c r="A11" s="42"/>
+      <c r="B11" s="42"/>
       <c r="C11" s="26" t="s">
         <v>111</v>
       </c>
@@ -5691,8 +6724,8 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="59"/>
-      <c r="B12" s="59"/>
+      <c r="A12" s="42"/>
+      <c r="B12" s="42"/>
       <c r="C12" s="18" t="s">
         <v>117</v>
       </c>
@@ -5704,8 +6737,8 @@
       <c r="G12" s="27"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="59"/>
-      <c r="B13" s="59"/>
+      <c r="A13" s="42"/>
+      <c r="B13" s="42"/>
       <c r="C13" s="19" t="s">
         <v>118</v>
       </c>
@@ -5717,8 +6750,8 @@
       <c r="G13" s="4"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="59"/>
-      <c r="B14" s="59"/>
+      <c r="A14" s="42"/>
+      <c r="B14" s="42"/>
       <c r="C14" s="19" t="s">
         <v>119</v>
       </c>
@@ -5730,8 +6763,8 @@
       <c r="G14" s="27"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="59"/>
-      <c r="B15" s="59"/>
+      <c r="A15" s="42"/>
+      <c r="B15" s="42"/>
       <c r="C15" s="19" t="s">
         <v>120</v>
       </c>
@@ -5743,8 +6776,8 @@
       <c r="G15" s="4"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="59"/>
-      <c r="B16" s="59"/>
+      <c r="A16" s="42"/>
+      <c r="B16" s="42"/>
       <c r="C16" s="19" t="s">
         <v>121</v>
       </c>
@@ -5756,8 +6789,8 @@
       <c r="G16" s="27"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="60"/>
-      <c r="B17" s="60"/>
+      <c r="A17" s="43"/>
+      <c r="B17" s="43"/>
       <c r="C17" s="19" t="s">
         <v>122</v>
       </c>
@@ -5769,10 +6802,10 @@
       <c r="G17" s="4"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="58" t="s">
+      <c r="A18" s="41" t="s">
         <v>134</v>
       </c>
-      <c r="B18" s="58" t="s">
+      <c r="B18" s="41" t="s">
         <v>142</v>
       </c>
       <c r="C18" s="3"/>
@@ -5784,12 +6817,12 @@
         <v>310</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>484</v>
+        <v>475</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="59"/>
-      <c r="B19" s="59"/>
+      <c r="A19" s="42"/>
+      <c r="B19" s="42"/>
       <c r="D19" s="3"/>
       <c r="E19" s="20" t="s">
         <v>133</v>
@@ -5798,12 +6831,12 @@
         <v>311</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>484</v>
+        <v>475</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="59"/>
-      <c r="B20" s="59"/>
+      <c r="A20" s="42"/>
+      <c r="B20" s="42"/>
       <c r="C20" s="28" t="s">
         <v>100</v>
       </c>
@@ -5815,8 +6848,8 @@
       <c r="G20" s="4"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="59"/>
-      <c r="B21" s="59"/>
+      <c r="A21" s="42"/>
+      <c r="B21" s="42"/>
       <c r="C21" s="28" t="s">
         <v>135</v>
       </c>
@@ -5827,8 +6860,8 @@
       <c r="G21" s="4"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="59"/>
-      <c r="B22" s="59"/>
+      <c r="A22" s="42"/>
+      <c r="B22" s="42"/>
       <c r="C22" s="28" t="s">
         <v>136</v>
       </c>
@@ -5840,8 +6873,8 @@
       <c r="G22" s="4"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="59"/>
-      <c r="B23" s="59"/>
+      <c r="A23" s="42"/>
+      <c r="B23" s="42"/>
       <c r="C23" s="28" t="s">
         <v>137</v>
       </c>
@@ -5853,8 +6886,8 @@
       <c r="G23" s="4"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="59"/>
-      <c r="B24" s="59"/>
+      <c r="A24" s="42"/>
+      <c r="B24" s="42"/>
       <c r="C24" s="28" t="s">
         <v>138</v>
       </c>
@@ -5866,8 +6899,8 @@
       <c r="G24" s="4"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="60"/>
-      <c r="B25" s="60"/>
+      <c r="A25" s="43"/>
+      <c r="B25" s="43"/>
       <c r="C25" s="28" t="s">
         <v>139</v>
       </c>
@@ -5879,118 +6912,118 @@
       <c r="G25" s="4"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="58" t="s">
+      <c r="A26" s="41" t="s">
         <v>290</v>
       </c>
-      <c r="B26" s="58" t="s">
+      <c r="B26" s="41" t="s">
         <v>291</v>
       </c>
       <c r="C26" s="33"/>
       <c r="D26" s="33"/>
-      <c r="E26" s="58" t="s">
+      <c r="E26" s="41" t="s">
         <v>132</v>
       </c>
-      <c r="F26" s="58" t="s">
+      <c r="F26" s="41" t="s">
         <v>115</v>
       </c>
-      <c r="G26" s="58" t="s">
-        <v>487</v>
+      <c r="G26" s="41" t="s">
+        <v>478</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="59"/>
-      <c r="B27" s="59"/>
+      <c r="A27" s="42"/>
+      <c r="B27" s="42"/>
       <c r="C27" s="33" t="s">
         <v>297</v>
       </c>
       <c r="D27" s="33" t="s">
         <v>308</v>
       </c>
-      <c r="E27" s="59"/>
-      <c r="F27" s="59"/>
-      <c r="G27" s="59"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="42"/>
+      <c r="G27" s="42"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="59"/>
-      <c r="B28" s="59"/>
+      <c r="A28" s="42"/>
+      <c r="B28" s="42"/>
       <c r="C28" s="33" t="s">
         <v>298</v>
       </c>
       <c r="D28" s="33" t="s">
         <v>309</v>
       </c>
-      <c r="E28" s="59"/>
-      <c r="F28" s="59"/>
-      <c r="G28" s="59"/>
+      <c r="E28" s="42"/>
+      <c r="F28" s="42"/>
+      <c r="G28" s="42"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="59"/>
-      <c r="B29" s="59"/>
+      <c r="A29" s="42"/>
+      <c r="B29" s="42"/>
       <c r="C29" s="33" t="s">
         <v>299</v>
       </c>
       <c r="D29" s="33" t="s">
         <v>313</v>
       </c>
-      <c r="E29" s="59"/>
-      <c r="F29" s="59"/>
-      <c r="G29" s="59"/>
+      <c r="E29" s="42"/>
+      <c r="F29" s="42"/>
+      <c r="G29" s="42"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="59"/>
-      <c r="B30" s="59"/>
+      <c r="A30" s="42"/>
+      <c r="B30" s="42"/>
       <c r="C30" s="33" t="s">
         <v>300</v>
       </c>
       <c r="D30" s="33" t="s">
         <v>312</v>
       </c>
-      <c r="E30" s="59"/>
-      <c r="F30" s="59"/>
-      <c r="G30" s="59"/>
+      <c r="E30" s="42"/>
+      <c r="F30" s="42"/>
+      <c r="G30" s="42"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="59"/>
-      <c r="B31" s="59"/>
+      <c r="A31" s="42"/>
+      <c r="B31" s="42"/>
       <c r="C31" s="33" t="s">
         <v>301</v>
       </c>
       <c r="D31" s="33" t="s">
         <v>314</v>
       </c>
-      <c r="E31" s="59"/>
-      <c r="F31" s="59"/>
-      <c r="G31" s="59"/>
+      <c r="E31" s="42"/>
+      <c r="F31" s="42"/>
+      <c r="G31" s="42"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="59"/>
-      <c r="B32" s="59"/>
+      <c r="A32" s="42"/>
+      <c r="B32" s="42"/>
       <c r="C32" s="33" t="s">
         <v>302</v>
       </c>
       <c r="D32" s="33" t="s">
         <v>316</v>
       </c>
-      <c r="E32" s="59"/>
-      <c r="F32" s="59"/>
-      <c r="G32" s="59"/>
+      <c r="E32" s="42"/>
+      <c r="F32" s="42"/>
+      <c r="G32" s="42"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="59"/>
-      <c r="B33" s="59"/>
+      <c r="A33" s="42"/>
+      <c r="B33" s="42"/>
       <c r="C33" s="33" t="s">
         <v>303</v>
       </c>
       <c r="D33" s="33" t="s">
         <v>317</v>
       </c>
-      <c r="E33" s="60"/>
-      <c r="F33" s="60"/>
-      <c r="G33" s="60"/>
+      <c r="E33" s="43"/>
+      <c r="F33" s="43"/>
+      <c r="G33" s="43"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="59"/>
-      <c r="B34" s="59"/>
+      <c r="A34" s="42"/>
+      <c r="B34" s="42"/>
       <c r="C34" s="34" t="s">
         <v>304</v>
       </c>
@@ -6002,8 +7035,8 @@
       <c r="G34" s="4"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="59"/>
-      <c r="B35" s="59"/>
+      <c r="A35" s="42"/>
+      <c r="B35" s="42"/>
       <c r="C35" s="34" t="s">
         <v>305</v>
       </c>
@@ -6015,8 +7048,8 @@
       <c r="G35" s="4"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="59"/>
-      <c r="B36" s="59"/>
+      <c r="A36" s="42"/>
+      <c r="B36" s="42"/>
       <c r="C36" s="34" t="s">
         <v>306</v>
       </c>
@@ -6028,8 +7061,8 @@
       <c r="G36" s="4"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="60"/>
-      <c r="B37" s="60"/>
+      <c r="A37" s="43"/>
+      <c r="B37" s="43"/>
       <c r="C37" s="34" t="s">
         <v>307</v>
       </c>
@@ -6042,11 +7075,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A26:A37"/>
-    <mergeCell ref="B26:B37"/>
-    <mergeCell ref="E26:E33"/>
-    <mergeCell ref="F26:F33"/>
-    <mergeCell ref="G26:G33"/>
     <mergeCell ref="D5:D7"/>
     <mergeCell ref="A2:A8"/>
     <mergeCell ref="B2:B8"/>
@@ -6055,6 +7083,11 @@
     <mergeCell ref="A9:A17"/>
     <mergeCell ref="B9:B17"/>
     <mergeCell ref="C5:C7"/>
+    <mergeCell ref="A26:A37"/>
+    <mergeCell ref="B26:B37"/>
+    <mergeCell ref="E26:E33"/>
+    <mergeCell ref="F26:F33"/>
+    <mergeCell ref="G26:G33"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -6064,7 +7097,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
